--- a/biology/Botanique/Gigartina/Gigartina.xlsx
+++ b/biology/Botanique/Gigartina/Gigartina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigartina est un genre d’algues rouges de la famille des Gigartinaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 juillet 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 juillet 2014) :
 Gigartina aculeifera Setchell &amp; Gardner (Sans vérification)
 Gigartina acuminata Schousboe (Sans vérification)
 Gigartina americana (J.Agardh) Kim (Sans vérification)
@@ -634,7 +648,7 @@
 Gigartina wigghii (Turner) S.F.Gray (Sans vérification)
 Gigartina wrightii (Turner) Lamouroux (Sans vérification)
 Gigartina wrightii Harvey (Statut incertain)
-Selon ITIS      (5 juillet 2014)[2] :
+Selon ITIS      (5 juillet 2014) :
 Gigartina acicularis
 Gigartina agardhii
 Gigartina binghamiae
@@ -658,7 +672,7 @@
 Gigartina tepida
 Gigartina unalaschensis
 Gigartina volans
-Selon NCBI  (5 juillet 2014)[3] :
+Selon NCBI  (5 juillet 2014) :
 Gigartina alveata
 Gigartina atropurpurea
 Gigartina bracteata
@@ -674,7 +688,7 @@
 Gigartina polycarpa
 Gigartina radula
 Gigartina skottsbergii
-Selon World Register of Marine Species                               (5 juillet 2014)[4] :
+Selon World Register of Marine Species                               (5 juillet 2014) :
 Gigartina americana (J.Agardh) Kim, 1976
 Gigartina ancistroclada Montagne, 1845
 Gigartina angulata J.Agardh, 1876
